--- a/backend/pages/excel/excel-certificate-002.xlsx
+++ b/backend/pages/excel/excel-certificate-002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morn\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D7CAC-EB8E-43EF-8887-4E4ECA0E769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA480B0-F9DF-4E63-8CBF-A0AAE4E11337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D4FD0C60-D8C4-47D7-ADAC-FF525A50AFBC}"/>
+    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{D4FD0C60-D8C4-47D7-ADAC-FF525A50AFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>การประกวดโครงงานวิทยาศาสตร์</t>
   </si>
   <si>
-    <t>รางวัลชนะเลิศ</t>
-  </si>
-  <si>
     <t>นิทรรศการวันวิทยาสาสตร์ Science today is Technology Tomorrow ประจำปี 2566</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>ITPR_SCIENCEKMITL</t>
+  </si>
+  <si>
+    <t>ได้รับ รางวัลชนะเลิศ</t>
   </si>
 </sst>
 </file>
@@ -152,11 +152,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -530,19 +530,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/pages/excel/excel-certificate-002.xlsx
+++ b/backend/pages/excel/excel-certificate-002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA480B0-F9DF-4E63-8CBF-A0AAE4E11337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E67F75-9B1E-4063-AEB3-57D079AB51FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{D4FD0C60-D8C4-47D7-ADAC-FF525A50AFBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4FD0C60-D8C4-47D7-ADAC-FF525A50AFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>การประกวดโครงงานวิทยาศาสตร์</t>
   </si>
   <si>
-    <t>นิทรรศการวันวิทยาสาสตร์ Science today is Technology Tomorrow ประจำปี 2566</t>
-  </si>
-  <si>
     <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
   </si>
   <si>
@@ -80,7 +77,10 @@
     <t>ITPR_SCIENCEKMITL</t>
   </si>
   <si>
-    <t>ได้รับ รางวัลชนะเลิศ</t>
+    <t>นิทรรศการวันวิทยาศาสตร์ "Science Today is Technology Tomorrow"</t>
+  </si>
+  <si>
+    <t>ได้รับรางวัลชนะเลิศ</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -539,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/pages/excel/excel-certificate-002.xlsx
+++ b/backend/pages/excel/excel-certificate-002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E67F75-9B1E-4063-AEB3-57D079AB51FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D1331-308D-4B75-A68F-F9F4AFB37FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4FD0C60-D8C4-47D7-ADAC-FF525A50AFBC}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>การประกวดโครงงานวิทยาศาสตร์</t>
   </si>
   <si>
-    <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
-  </si>
-  <si>
     <t>ชื่อทีม</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>ได้รับรางวัลชนะเลิศ</t>
+  </si>
+  <si>
+    <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ. 2566</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -530,19 +530,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
